--- a/Prefered_PARX_model_forecast/RollingWindow/MSFE_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/RollingWindow/MSFE_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -40,16 +40,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Prefered_PARX_model_forecast/RollingWindow/MSFE_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/RollingWindow/MSFE_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -42,11 +42,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -54,6 +66,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,1732 +90,1732 @@
   <dimension ref="A1:A365"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.9382867183936322</v>
+        <v>11.705399459314652</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.7436220373908615</v>
+        <v>8.4833740267593125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.9329664284681529</v>
+        <v>7.3020040162502813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.5586789843924949</v>
+        <v>6.0816106619068098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2.2373341378508225</v>
+        <v>9.4552046594823</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2.7740716085858756</v>
+        <v>10.542059919088796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>4.4414938889876749</v>
+        <v>9.4231230268091242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>4.0097986411056565</v>
+        <v>9.216302026107634</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>3.6812296049725362</v>
+        <v>8.4513429672965863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>3.9761370436909917</v>
+        <v>10.965501838045718</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>4.3290777503428712</v>
+        <v>11.571915083116126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>4.0183108591062897</v>
+        <v>13.288634454453785</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>4.1903061875031886</v>
+        <v>12.645689955845461</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>4.0840162288801336</v>
+        <v>12.60378291647428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>3.9549497628842611</v>
+        <v>12.077781232171136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>4.0878393846608105</v>
+        <v>11.418014194810183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>3.9841562859087025</v>
+        <v>11.330834135374165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>4.3373929811744985</v>
+        <v>11.021347883953387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>4.1289905146347081</v>
+        <v>10.689551172665327</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>4.0119945490247542</v>
+        <v>10.707389420189671</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>4.7674007383621673</v>
+        <v>11.470140042698723</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>4.660833045494484</v>
+        <v>11.026332434425381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>4.6185704619261729</v>
+        <v>11.113052428529903</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>4.4979413286173759</v>
+        <v>12.732012506424091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>5.3932803548337063</v>
+        <v>12.242457110499913</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5.9218342609658228</v>
+        <v>12.516897385869846</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>5.8696621092129408</v>
+        <v>13.520503087416428</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>5.982821222552559</v>
+        <v>13.624100013754303</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>5.845044992337761</v>
+        <v>13.304730610959329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>6.929569835003436</v>
+        <v>13.173758648543052</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>7.3569588285236076</v>
+        <v>12.935754307180584</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>8.333977987301898</v>
+        <v>12.720642298140124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>8.2407995911330385</v>
+        <v>13.993240032857415</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>8.4702343851900324</v>
+        <v>13.600231820845465</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>8.3832905926802379</v>
+        <v>13.501604970222182</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>8.2026978341170125</v>
+        <v>13.144324142479709</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>8.3030780430919151</v>
+        <v>12.966453743019805</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>8.2693491753847432</v>
+        <v>13.469816683758678</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>8.2328094159137066</v>
+        <v>13.145253998387668</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>8.3568758658784557</v>
+        <v>13.342527009001442</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>8.9250776298975847</v>
+        <v>13.354877861323825</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>8.7788497517503874</v>
+        <v>14.402747099081408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>9.0484925225107524</v>
+        <v>17.156523442086787</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>10.138637875596602</v>
+        <v>18.37299803132484</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>9.9251994172023732</v>
+        <v>18.80058455511481</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>10.333821129834012</v>
+        <v>18.946481644183681</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>11.02591502743477</v>
+        <v>21.610103961946425</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>11.217306271213609</v>
+        <v>24.732240898498308</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>11.111243525492513</v>
+        <v>26.195806734981574</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>11.131155841523181</v>
+        <v>30.451687291356876</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>11.04800729795072</v>
+        <v>31.327016242356766</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>10.963524927792392</v>
+        <v>33.021774570087935</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>11.831852713252138</v>
+        <v>35.236196701145339</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>11.623965661499245</v>
+        <v>41.342088039184226</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>11.631844765090289</v>
+        <v>42.774176953584458</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>11.434431393433973</v>
+        <v>44.241001122716945</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>11.35471346886675</v>
+        <v>51.557010139611144</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>11.709147764904104</v>
+        <v>55.45475608655326</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>11.52108639547439</v>
+        <v>59.84151348033641</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>11.672084875374086</v>
+        <v>60.759261335279881</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>11.695905257982742</v>
+        <v>66.533818895212676</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>12.428322602115136</v>
+        <v>73.939038577142981</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>14.340316607420686</v>
+        <v>76.079058235929367</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>15.247853296394345</v>
+        <v>75.887589102819348</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>15.628567028440568</v>
+        <v>78.355582837789441</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>15.803405587438986</v>
+        <v>82.139073124106901</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>17.778486874763722</v>
+        <v>82.732323200450821</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>20.091173223175339</v>
+        <v>85.63087084130143</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>21.25225344106827</v>
+        <v>90.23798348372037</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>24.399195321719528</v>
+        <v>92.561733725612726</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>25.081674155541595</v>
+        <v>92.068102502232279</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>26.383468564193901</v>
+        <v>95.065790755099655</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>28.041655963571277</v>
+        <v>103.86357875640259</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>32.535290925767477</v>
+        <v>103.11533816214506</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>33.686265890083376</v>
+        <v>103.65608721107625</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>34.870598773672867</v>
+        <v>102.80358456721873</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>40.367256596749939</v>
+        <v>103.41628515466797</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>43.346809881779301</v>
+        <v>104.18296661676274</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>46.70363720907195</v>
+        <v>104.56776517757234</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>47.512599485675899</v>
+        <v>108.99507887783992</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>51.9858788110554</v>
+        <v>111.00511400677121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>57.688231952780818</v>
+        <v>113.91479268548206</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>59.402107819018696</v>
+        <v>116.26995035902904</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>59.375414825304837</v>
+        <v>118.43922418636392</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>61.345474120599427</v>
+        <v>118.53680276911494</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>64.342241113086757</v>
+        <v>121.85038249759479</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>64.916629642193485</v>
+        <v>125.82984927326537</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>67.206472223772039</v>
+        <v>126.98674444928851</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>70.834166676715668</v>
+        <v>130.2991013396672</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>72.700690041100572</v>
+        <v>131.01786464481566</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>72.440961368014115</v>
+        <v>135.07687396409708</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>74.815890617851323</v>
+        <v>137.09991127327456</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>81.775734578387542</v>
+        <v>140.90039909748484</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>81.335207639910394</v>
+        <v>147.22598089267595</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>81.740278434590593</v>
+        <v>154.81918932667423</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>81.229158225511668</v>
+        <v>158.96895805427428</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>81.810614668586325</v>
+        <v>166.28061633546073</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>82.550214537234481</v>
+        <v>171.30851552236032</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>82.966918650140258</v>
+        <v>179.64018482647873</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>86.521924018945569</v>
+        <v>186.76917677859748</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>88.213215237307963</v>
+        <v>194.39065187437012</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>90.531645170532485</v>
+        <v>202.34571381592394</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>92.465877023505726</v>
+        <v>217.68118590173805</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>94.233260775851662</v>
+        <v>229.33382648764794</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>94.396258775346212</v>
+        <v>230.83240736727487</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>97.030478796600292</v>
+        <v>231.0881332532945</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>100.26576051777019</v>
+        <v>236.67858642039758</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>101.21358888079729</v>
+        <v>254.90502979346525</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>103.84188962143938</v>
+        <v>259.25013794434597</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>104.51741121633685</v>
+        <v>268.57358254068083</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>107.80319301892197</v>
+        <v>270.88901822838301</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>109.54817972508039</v>
+        <v>274.74763537755194</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>112.69474794956156</v>
+        <v>277.32692130786262</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>118.00242967949126</v>
+        <v>278.99641499463911</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>124.41447460989846</v>
+        <v>290.67753845663248</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>128.00795652506488</v>
+        <v>313.06592399055222</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>134.16589292758792</v>
+        <v>320.41992497689051</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>138.56223581064106</v>
+        <v>323.62155522152449</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>145.72302884126563</v>
+        <v>327.72496619598331</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>151.92097847028037</v>
+        <v>328.39211465109628</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>158.46698267501066</v>
+        <v>332.43888022467803</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>165.29143271087329</v>
+        <v>341.70067566679916</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>178.36707761955981</v>
+        <v>345.6169928606277</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>188.42576831467989</v>
+        <v>352.8092641008933</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>189.9945530356602</v>
+        <v>360.97299466683364</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>190.5250943560732</v>
+        <v>360.63590944506922</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>195.65660468577872</v>
+        <v>360.40310706675518</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>211.61886726830033</v>
+        <v>362.22230673088944</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>215.7258932806424</v>
+        <v>369.42363163934556</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>224.02037037643009</v>
+        <v>379.17621092083061</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>226.2344816765648</v>
+        <v>389.66342928251623</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>229.62907582595517</v>
+        <v>398.56887046997963</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>231.92020098656295</v>
+        <v>406.44523845440381</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>233.44744920659133</v>
+        <v>420.74498022046174</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>243.26788309277774</v>
+        <v>436.40834740979216</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>262.21332776091953</v>
+        <v>467.32203120889511</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>268.51765535379434</v>
+        <v>474.70564278843409</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>271.21075790495615</v>
+        <v>485.54623012068123</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>274.88264094563641</v>
+        <v>524.19989421382627</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>275.66587214417899</v>
+        <v>554.98950851777124</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>279.23528775539285</v>
+        <v>570.07559344495519</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>287.2496805344237</v>
+        <v>598.73434425337939</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>290.64266746600936</v>
+        <v>656.53608155885263</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>296.39514966893699</v>
+        <v>733.10304845922656</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>302.94466246698983</v>
+        <v>785.92983794026384</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>302.62944185206254</v>
+        <v>829.81383699158448</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>302.17523694003518</v>
+        <v>870.41549538438903</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>303.53639844781503</v>
+        <v>908.77888614538585</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>309.25384830003355</v>
+        <v>922.18393325010641</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>317.04384765914591</v>
+        <v>993.95315832326025</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>325.29385651160254</v>
+        <v>1031.7787283176044</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>332.031170249745</v>
+        <v>1054.0489641409076</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>337.64133832444753</v>
+        <v>1061.9213991467213</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>347.50938964791396</v>
+        <v>1104.5569622835897</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>359.02428203535641</v>
+        <v>1136.1209145399378</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>381.99524468754555</v>
+        <v>1148.5799354304377</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>386.69427097847944</v>
+        <v>1261.318730829777</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>392.88235072854354</v>
+        <v>1287.947253240462</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>423.83429731371172</v>
+        <v>1285.4379769628979</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>449.94673686630989</v>
+        <v>1297.3815186947168</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>463.39277174353259</v>
+        <v>1345.2084849777841</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>489.66011615536678</v>
+        <v>1382.8950193815747</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>540.88093052333932</v>
+        <v>1392.3829063193969</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>609.25289737304456</v>
+        <v>1440.9622931086637</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>660.13740276315878</v>
+        <v>1449.7304491561008</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>704.70786604114278</v>
+        <v>1468.7888717877665</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>750.97956942656663</v>
+        <v>1514.0167838133843</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>795.28560766952421</v>
+        <v>1532.8232463080258</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>814.45056113183193</v>
+        <v>1545.0255899825831</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>890.83090778865903</v>
+        <v>1557.2866804962223</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>930.42966286312355</v>
+        <v>1583.7281508801127</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>964.38504758115073</v>
+        <v>1592.3040719879918</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>981.57106641842097</v>
+        <v>1604.3337942747537</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1042.9066036464553</v>
+        <v>1609.1927063645289</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1084.0362196371477</v>
+        <v>1619.721514656231</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1112.2158958616262</v>
+        <v>1621.8123407764974</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1238.9285301783846</v>
+        <v>1623.2957331132577</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1274.5058195320648</v>
+        <v>1662.2990244003647</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>1282.3611892234187</v>
+        <v>1683.0800223030001</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>1298.2576176441494</v>
+        <v>1676.4843406677908</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1346.8335418214472</v>
+        <v>1680.1566629122553</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1381.5520947781945</v>
+        <v>1685.9073169696915</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1390.5893764247969</v>
+        <v>1680.1909564937152</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>1436.9159018431642</v>
+        <v>1675.3660566366159</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1445.8483544731255</v>
+        <v>1678.9597855397517</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1461.708232034764</v>
+        <v>1673.5368461408314</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1500.4053298763652</v>
+        <v>1669.4259668253858</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>1516.727051442846</v>
+        <v>1665.3260426721909</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>1526.1987148134592</v>
+        <v>1659.8934293572877</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1535.3278355058533</v>
+        <v>1651.5235917789098</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1557.2260602388067</v>
+        <v>1645.2877918013073</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1563.1991488978542</v>
+        <v>1642.6783939774293</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1569.0117868855818</v>
+        <v>1636.0794319671068</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>1568.9795386557375</v>
+        <v>1628.3200261638563</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1573.2578337154746</v>
+        <v>1621.2169542413858</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1571.6806574750553</v>
+        <v>1616.0032118318693</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1569.9757276349453</v>
+        <v>1608.1025638729573</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>1600.9523050244804</v>
+        <v>1601.0151471739214</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>1617.0316492491488</v>
+        <v>1596.1952361525928</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>1610.2398467421951</v>
+        <v>1592.2648897116717</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>1610.935649783429</v>
+        <v>1586.7920289821209</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>1615.3154675753519</v>
+        <v>1579.2175105080946</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1609.8221804723971</v>
+        <v>1571.709447344839</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>1605.0389114807806</v>
+        <v>1566.5410579542038</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1607.6544938298296</v>
+        <v>1559.6107804233429</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>1602.7756539554068</v>
+        <v>1552.862956238064</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1598.7014986253503</v>
+        <v>1545.8650024901124</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>1594.8256616352603</v>
+        <v>1539.1757822858644</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>1589.956901831926</v>
+        <v>1534.3914179283793</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>1582.6592012486096</v>
+        <v>1529.528234796639</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>1577.2996082845118</v>
+        <v>1523.1120636895935</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>1575.2133267727531</v>
+        <v>1516.2232290426793</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>1569.8294572796535</v>
+        <v>1510.7914785950852</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>1563.5069931046842</v>
+        <v>1505.0628589092937</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>1557.6888640064699</v>
+        <v>1500.4806463607545</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1553.7098957387675</v>
+        <v>1496.5373106357845</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1546.9484244615414</v>
+        <v>1490.7828763102461</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>1541.0597762787563</v>
+        <v>1485.0749411654178</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>1537.1559183827321</v>
+        <v>1479.0485437515797</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>1534.1772136736961</v>
+        <v>1473.4878023742097</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>1529.8856853681914</v>
+        <v>1470.6946407639268</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>1523.4135467061717</v>
+        <v>1465.8557830464522</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1516.9648706999508</v>
+        <v>1460.6929572051172</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>1512.6787347172008</v>
+        <v>1454.9418833402431</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>1506.6798386583132</v>
+        <v>1452.4906218444194</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1500.919482947158</v>
+        <v>1446.9310178527294</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1494.8687321901075</v>
+        <v>1441.1442717164166</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>1489.1223714513205</v>
+        <v>1437.5105167951372</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>1485.0740252734308</v>
+        <v>1433.378551152872</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>1480.9630283226331</v>
+        <v>1428.7009840963244</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>1475.3286228131253</v>
+        <v>1422.6863046198084</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>1469.2564715858382</v>
+        <v>1418.5128913236192</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1464.5069944029672</v>
+        <v>1413.9407444126487</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>1459.4982028288266</v>
+        <v>1409.0468773748607</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>1455.5974651813181</v>
+        <v>1406.1673380718282</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1452.1819979077634</v>
+        <v>1401.908671988331</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1447.0241542923995</v>
+        <v>1397.0073629325661</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>1441.8924425330438</v>
+        <v>1391.4618079667503</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>1436.4871453415731</v>
+        <v>1386.2899317882329</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>1431.4911355698332</v>
+        <v>1383.0135771592102</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>1429.0161912478379</v>
+        <v>1382.4549432764431</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>1424.6635743042971</v>
+        <v>1377.681421155098</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>1419.9601377258309</v>
+        <v>1373.1191129136566</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>1414.8014829259982</v>
+        <v>1371.454258973678</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1412.5497169526241</v>
+        <v>1368.1491467775368</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1407.5233640596493</v>
+        <v>1365.1061614524324</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1402.2716334480024</v>
+        <v>1361.5769729897879</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>1399.0827107647835</v>
+        <v>1362.4970584262487</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>1395.5208248880331</v>
+        <v>1359.5325186009766</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>1391.5040634246006</v>
+        <v>1358.0558047450172</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>1386.1734771106105</v>
+        <v>1354.7671532015854</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>1382.669099415107</v>
+        <v>1350.8054728902719</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1378.6889351577911</v>
+        <v>1347.0222538197966</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>1374.4654541460166</v>
+        <v>1343.151089389487</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>1372.1502042566979</v>
+        <v>1338.8486946699441</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1368.5533161718836</v>
+        <v>1338.7060792393468</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1364.4196286718222</v>
+        <v>1335.7477337518715</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>1359.5266545279783</v>
+        <v>1332.6794417124088</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>1355.0075283632175</v>
+        <v>1329.2165408721178</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>1352.2742339552556</v>
+        <v>1325.4616771064461</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>1352.0794219721504</v>
+        <v>1321.3906281031389</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>1347.8862027201778</v>
+        <v>1318.09963954314</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>1343.9551139612506</v>
+        <v>1315.5036104149044</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>1342.7374899137717</v>
+        <v>1312.2710847297139</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>1340.0280583493284</v>
+        <v>1309.6478996493922</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>1337.5968121033527</v>
+        <v>1305.942672378545</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1334.5932559515554</v>
+        <v>1303.0655354176213</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>1335.6801533767957</v>
+        <v>1301.438914942366</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>1333.0424793992825</v>
+        <v>1300.75714957233</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>1331.3509074758765</v>
+        <v>1298.2261395991163</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>1328.4688554304503</v>
+        <v>1294.9622115083055</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>1324.7311460599421</v>
+        <v>1291.3845471607963</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1321.1765440688071</v>
+        <v>1287.5302809229161</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>1317.3662018250097</v>
+        <v>1284.1199232171423</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1313.3329674029833</v>
+        <v>1279.6049722907474</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1312.7026540286581</v>
+        <v>1275.8213488773863</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1309.6431717337373</v>
+        <v>1275.1876463355686</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>1307.0514455591995</v>
+        <v>1273.1640920675934</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>1303.7557245786963</v>
+        <v>1271.4933265777131</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>1300.0784479262402</v>
+        <v>1267.3341941550577</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>1296.1554596282313</v>
+        <v>1263.2257549177523</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>1293.1178715844935</v>
+        <v>1259.9902097759714</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1290.6935830845343</v>
+        <v>1256.7845132379862</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>1287.4882503433462</v>
+        <v>1253.2938113605164</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>1285.1100512352896</v>
+        <v>1249.5988999921606</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1281.4204481608083</v>
+        <v>1246.0996635442607</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1278.5443498978052</v>
+        <v>1244.6765806985641</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>1277.0717298577929</v>
+        <v>1242.9223227632203</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>1276.3019731748323</v>
+        <v>1239.4722664127933</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>1274.0373099644669</v>
+        <v>1239.7276120506535</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>1270.7639966294164</v>
+        <v>1236.0042363979098</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>1267.6233333775265</v>
+        <v>1233.9990534445835</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>1264.0910988075068</v>
+        <v>1232.5755108869039</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>1261.243403908348</v>
+        <v>1232.5366249878257</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>1257.1014409387644</v>
+        <v>1229.8150058776876</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1253.8065208513274</v>
+        <v>1226.909831918193</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1253.3301196685068</v>
+        <v>1223.3905718809895</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>1251.0271265310998</v>
+        <v>1220.0403063595652</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>1250.0464417663766</v>
+        <v>1218.9838893902593</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>1246.5291052753421</v>
+        <v>1215.7563692465924</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>1242.9970940415355</v>
+        <v>1214.5533990244057</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>1240.298433715282</v>
+        <v>1211.5332034213986</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>1237.7466742563818</v>
+        <v>1208.9658601297554</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>1235.032082721237</v>
+        <v>1206.0419855071893</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>1231.9229534058791</v>
+        <v>1204.203018506227</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>1229.479896435143</v>
+        <v>1202.2197354119576</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1229.1252757974808</v>
+        <v>1201.9651017789085</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>1228.4432088546851</v>
+        <v>1200.9919003289942</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>1226.3612529266475</v>
+        <v>1198.885487387673</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>1229.0505575252955</v>
+        <v>1196.057062985185</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>1226.3658412934888</v>
+        <v>1196.2242577088884</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>1226.4516601800606</v>
+        <v>1194.6112847767345</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>1226.5286423573957</v>
+        <v>1192.3181790221192</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>1228.6864419145186</v>
+        <v>1190.7036875016445</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>1227.7936832624034</v>
+        <v>1188.2044061060556</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>1226.813972826805</v>
+        <v>1185.0729309972428</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1224.6955679410421</v>
+        <v>1181.7882831189409</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>1222.7724562185638</v>
+        <v>1179.9915478679764</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>1222.9634324057579</v>
+        <v>1176.7069096439322</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>1219.5143628215635</v>
+        <v>1175.3702463117645</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>1215.7998309478285</v>
+        <v>1172.9120359314181</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>1212.3478522355117</v>
+        <v>1171.1612388485685</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>1208.7371130961667</v>
+        <v>1168.0799430731279</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>1205.3294629295358</v>
+        <v>1164.5704477890761</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>1201.6554370141814</v>
+        <v>1161.4736205598713</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>1198.0433701116078</v>
+        <v>1158.0094685708766</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1194.4572453274347</v>
+        <v>1154.5327464324805</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>1190.828945908554</v>
+        <v>1151.1032034591638</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>1187.3360829073479</v>
+        <v>1147.836837477309</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>1184.1922019164831</v>
+        <v>1144.716770876729</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>1180.7022503107319</v>
+        <v>1141.4963887843548</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>1177.1942223609965</v>
+        <v>1138.1312505661278</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>1173.8955225566258</v>
+        <v>1134.8971071843687</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>1170.4477619177283</v>
+        <v>1131.6108706818732</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>1167.2615827410268</v>
+        <v>1128.3803454553611</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>1164.5316246798618</v>
+        <v>1125.1724517686807</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>1161.9799504349501</v>
+        <v>1121.9136467276946</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>1158.5958754798223</v>
+        <v>1118.6280804110236</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>1155.9487972981356</v>
+        <v>1115.3494068914813</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>1152.5589718123795</v>
+        <v>1112.0923127947462</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>1149.5454467810987</v>
+        <v>1108.9978680019203</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>1146.9323582422664</v>
+        <v>1106.0813333542685</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1144.4937415228922</v>
+        <v>1102.9421067855585</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>1141.4026840939337</v>
+        <v>1099.7542347818546</v>
       </c>
     </row>
     <row r="346">
